--- a/500all/speech_level/speeches_CHRG-114hhrg98877.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98877.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. This hearing will come to order. I would like to start by thanking our witnesses for being here to answer questions on the President's Memorandum entitled, ``Mitigating Impacts on Natural Resources from Development and Encouraging Related Private Investment.''</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Thank you, Mr. Chairman, and thank you to our witnesses for taking the time to be with us today.    While I am pleased that the subcommittee is holding its first hearing in nearly 7 months--I missed you, Mr. Chairman, I think we have to do more work together--I am somewhat perplexed that we are examining the Presidential Memorandum on Mitigation, a simple restatement of an important conservation tool that has facilitated over $3 billion in investment in conservation initiatives, and that has had the support of both Democratic and Republican administrations.    My background and experience in the private sector has made me a believer in public-private partnerships, and has taught me the value that mitigation can bring both to businesses and the environment. My business experience also made me a strong believer in corporate responsibility, and I know that we can undertake important development projects while also protecting our environment. During my time at General Motors, we underwent many mitigation projects that ensured our natural resources were protected while development projects moved forward at the same time.    Mitigation is a solution, not a problem. Companies and developers have a choice: they could completely scrap a project because it conflicts with important environmental statutes, or they can offset the impact of their activities. These policies are not just supported by Democrats. They are widely supported by the business community and by Republican administrations.    A quick look at the numbers helps illustrate this support. Today, there are over 140 private endangered species conservation banks and over 1,500 private Clean Water Act banks. The Army Corps of Engineers has found that the use of mitigation banks has led to a more than 50 percent improvement in the timeliness of issuing permits. It is hard to argue with these results.    I have to say that I am somewhat baffled by the perspective offered here on the other side of the aisle today, because I see the Presidential Memo as a restatement of what we are already doing, but with an emphasis on greater coordination between the Federal agencies. This is something that all of us support, including the business community and previous Republican administrations. Why wouldn't we want to ensure that different Federal agencies have consistent mitigation policies?    I am looking forward to hearing confirmation from our witnesses today that the Presidential Memorandum does not create any new regulations or claim any new statutory authorities, but rather is an attempt to make the process run a bit smoother by identifying a set of consistent standards to improve existing mitigation practices. My colleagues on the Majority side seem to have the opposite impression. I hope today we set the record straight, and we can all maybe agree on the same thing, Mr. Chairman.    Thank you, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goldfuss</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Goldfuss. Chairman Gohmert, Ranking Member Dingell, and members of the subcommittee, thank you for this opportunity to appear before you today to discuss this Administration's work on mitigation. I am really excited to discuss this policy, because we do see this as a good government approach.    We all have a moral obligation to the next generation to leave America's natural resources in better condition than when we inherited them. It is this same obligation that contributes to the strength of our economy and quality of the life we live today. American ingenuity has provided the tools that we need to avoid damage to the most special places in our Nation, and to find new ways to restore areas that have been degraded.    The Presidential Memorandum on Mitigation signed on November 3, 2015, reinforces the important point that development and environmental protection go hand in hand. Mitigation, which is the practice of avoiding, minimizing, and compensating for environmental impacts, and only compensating when all else is avoided, is necessary to protect and preserve our land, water, and wildlife. Specifically, this Memo encourages good government actions and better coordination across Federal agencies to produce faster permitting times and stronger environmental outcomes.    The Memo is not a regulation or new requirement. Rather, it encourages agencies to, within their existing legal authorities, ensure consistent standards and institutionalize best practices that reduce the time and cost required to complete permitting and review.    This Administration is not the first to recognize the importance of advanced planning to compensate for negative impacts to our environment. For more than 45 years, both Democratic and Republican administrations have sought to improve government policies that both encourage development and strengthen environmental outcomes. In fact, some of our country's most significant advancements in restoration and mitigation policies have come from Republican leaders committed to protecting America's natural resources.    Notably, I would like to point to an Earth Day speech in 2004, when President George W. Bush set an ambitious goal to move beyond the ``no net loss'' policy for wetlands to ensure that, as a whole, wetland areas would, instead, increase.    Beyond the obligations to protect our natural resources for future generations, key pillars of good government are consistency and efficiency. Building on this Administration's commitment to ensuring efficient permitting, CEQ facilitated an inter-agency dialog to identify best practices with the goal of establishing compatible policies across all agencies that manage natural resources within their existing statutes.    Why the focus? We know Federal mitigation policies produce results. For example, when compensatory mitigation is required, the Army Corps of Engineers has found that the use of mitigation banks leads to a more than 50 percent reduction in permitting times. Yet, more importantly, it is only in very limited circumstances that any restoration or compensation is required, as projects are now better designed to avoid those impacts all together.    As a result of these efforts to build on existing policies and ensure efficiency across the Federal Government, the Memo articulates a common policy through a set of eight core principles to be interpreted and incorporated into agency policies. These principles are all outlined in my written testimony, so I won't go through them now.    Decades after the first mitigation policies were created, we are continuing to find innovative ways to effectively avoid, minimize, and compensate for damages to natural resources. Building on the President's commitment to good government and the unprecedented steps that this Administration has taken to protect our land, water, and wildlife for future generations, the Memo provides a more streamlined process and reduced permitting times, while improving environmental outcomes.    Chairman Gohmert, Ranking Member Dingell, and members of the committee and subcommittee, I appreciate the opportunity to testify before you today, and look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you. At this time, the Chair recognizes Mr. Bean for his testimony.    You have 5 minutes.</t>
   </si>
   <si>
-    <t>Bean</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bean. Chairman Gohmert, Ranking Member Dingell, members of the subcommittee, thank you for this opportunity to testify today concerning the Department's policies and practices relating to mitigation and the recent Presidential Memorandum on that subject.    The Department is committed to facilitating responsible economic development, both on public lands and elsewhere, while protecting and conserving both natural and cultural resources. Effective mitigation practices are key to accomplishing those dual goals.    As my written statement describes in more detail, the Department and its constituent agencies--but particularly the Fish and Wildlife Service--have been given congressionally-directed mitigation responsibilities as far back as 1934 with enactment of the Fish and Wildlife Coordination Act. This Act requires that wildlife conservation receive equal consideration with other features of water resource development programs.    The Fish and Wildlife Service issued a formal mitigation policy in 1981. The purpose of that policy was to guide the implementation of the services and mitigation responsibilities under the Coordination Act, the National Environmental Policy Act, and other laws. It remains in effect today.    As my written testimony also details, the experience gained by our sister agencies, the U.S. Army Corps of Engineers and the Environmental Protection Agency, under section 404 of the Clean Water Act, has been very informative for the Department's ongoing efforts to improve its own mitigation policies. The mitigation rule published by those two agencies in 2008, in the Bush administration, dealt thoughtfully and constructively with a broad array of mitigation issues. It improved the transparency and predictability of mitigation decisions.    Based on the Department of the Interior's own mitigation experience, and that of its sister agencies, Interior Secretary Sally Jewel issued a secretarial order in the fall of 2013 on improving mitigation practices and policies of the Department. In that order, the Secretary directed the Department and each of its bureaus to follow a common set of principles for its mitigation decisions, and to use a landscape-scale approach to guide the siting of compensatory mitigation efforts.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t xml:space="preserve">    Mr. Gohmert. Thank you very much.    At this time, Mr. Ferebee, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ferebee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ferebee. Chairman Gohmert, Ranking Member Dingell, and members of the committee, thank you for the opportunity to discuss the efforts of the Forest Service to mitigate the recent Presidential Memorandum on Mitigation.    The Forest Service's goal is to enable responsible economic development on National Forest System lands, while protecting natural and cultural resources. Our laws, including the Organic Act and the Multiple-Use Sustained-Yield Act, authorize the Agency to appropriately minimize effects from the use of National Forest System lands and to sustain goods and services the public receive from those lands.    The Forest Service currently works with proponents and the public to identify and mitigate impacts to a broad range of resources from activities on National Forest System lands. We first look to avoid impacts, then minimize impacts, and finally, to compensate residual impacts to the important resources. This is known as implementing the mitigation hierarchy. We proactively work with proponents in the design and siting phase in order to reduce adverse impacts to resources.    If adverse impacts can be avoided, no further mitigation actions are necessary. However, sometimes it is not practical or possible to avoid adverse impacts, and we work with proponents to minimize impacts to the extent practicable. Only at that point, do we consider compensatory mitigation to address remaining impacts to important or sensitive resources. In that case, the Agency identifies appropriate mitigation actions through project review and engagement with other Federal agencies, states, tribes, the proponent, and the public.    We have found that proactive work with the proponent in the implementation of the mitigation hierarchy can lead to successful projects with improved outcomes for local communities, the proponent, and the National Forest System.    While individual units of the Forest Service have been successful in developing and implementing proponent-driven projects that involve compensatory mitigation, the Forest Service, overall, does not have as much experience as other agencies. The Presidential Memo calls for the Forest Service to develop policy on mitigation. The direction provides an opportunity for my agency to learn from past experiences and develop a consistent systematic approach to mitigation in the future.    As public input is important when developing new policies and procedures, we will engage our stakeholders, including the proponents, as we move forward.    We are also focusing on learning from those with extensive expertise in this area, including Federal agencies, states, tribes, and non-profits. A new Agency policy will help us make our implementation of the full suite of mitigation options more consistent, predictable, and effective.    Thank you for the opportunity to present this testimony to you today, and I look forward to answering any of your questions.</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman.    Ms. Goldfuss, thanks for being here. The Presidential Memorandum directs agencies to give preference to advance compensation. Can you please tell me how that might affect statutes like the Endangered Species Act or the Marine Mammal Protection Act, that provide for mitigation, but have not historically been interpreted to mandate the use of compensation?</t>
   </si>
   <si>
@@ -394,9 +376,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you so much, Mr. Chairman. I am excited here to have this hearing regarding compensatory mitigation. As everybody knows, this is a mainstream item. It is not some fringe wish list item.    Of course, it is good for the environment, but it is also great for development, the economy, and has been used for decades under Republican and Democratic administrations. It is based on the fundamental premise of economics, and that is compensation for unfunded externalities. Decades ago development would be stopped if a project negatively impacted a natural resource. Mitigation offers a new creative option that can protect resources and compensate for externalities, as well.    Now, the Memorandum we are discussing today is not a rewrite of public land use. It is certainly not a new rule. Rather, it just solidifies and provides more consistency and predictability to efforts that are already underway--generally, the approach that we want to hear from our private-sector partners. Instead of a patchwork approach, this will improve the implementation of mitigation through a comprehensive approach. And, it is very important to improve coordination between our public and private entities.    This Memorandum does not mandate that Federal agencies require more compensatory mitigation, no. It, rather, identifies consistent standards and principles to provide for better predictability over existing mitigation practices.    My first question is for Ms. Goldfuss. Animal habitats, private landowners that are paid a free-market price for a scarce resource, investors with a reasonable degree of certainty get a return on their investment, and industry will use this mitigation in the marketplace--those are all key stakeholders who benefit from this policy. Do you agree that free-market investment tied to high standards for mitigation delivers better and more predictable outcomes?</t>
   </si>
   <si>
@@ -490,9 +469,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you, panel, for being here.    Ms. Goldfuss, you made a statement reminiscent of Teddy Roosevelt that I will say I actually wholeheartedly agree with, that we should be good stewards of our natural resources, and leave them in a better condition than we found them in for the next generation.    However, Roosevelt was a conservationist who believed that our resources were there for our use, and we were to manage them as good stewards. In all due respect, from what I see from our current Administration, there is a great contrast in Roosevelt's brand of conservation and this Administration's model of preservation and a total hands-off approach.    So, if we cut to the chase, this Memo and plan looks to me like it could be used as an impediment for any use and management of our resources, which would prohibit us from being able to have any kind of conservation efforts.    The famous mathematician, physicist, and philosopher, Pascal, once said that words arranged differently have different meanings, and meanings arranged differently have different effects. There are a lot of problems with some of the words that are in this Memo. And, I know you have said that the Memo does not really mean anything, that the agencies can figure out what they mean; but the Memo talks about a resource of irreplaceable character, and that minimization and compensation may not be adequate forms of mitigation. Could you help me understand what is meant by irreplaceable character? Ms. Goldfuss?</t>
   </si>
   <si>
@@ -575,9 +551,6 @@
   </si>
   <si>
     <t>412674</t>
-  </si>
-  <si>
-    <t>Darin LaHood</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman, and I want to thank the witnesses.    In reviewing this Memorandum and the mitigation plan, I have heard in the questioning here this morning the number of times that you have talked about using the discretion, taking it under advisement on the implementation of this. And, I was looking at the Department of the Interior Department Manual. I guess it is 600DM6. And under 6.6, which is titled, ``Principles,'' the manual talks about, ``Such use includes authority to decline authorization of projects if applicants cannot adequately mitigate impacts to levels required to achieve established goals.''    And when I look at that, it seems to me that you can object any plan or project, based on what is in that language, if it does not achieve your goals. That, to me, seems to conflict with what you are saying here. Can you talk about that?</t>
@@ -1426,11 +1399,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1452,11 +1423,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1478,11 +1447,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1502,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1530,11 +1495,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1554,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1582,11 +1543,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1606,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1634,11 +1591,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1658,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1686,11 +1639,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1710,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1738,11 +1687,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1762,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1790,11 +1735,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1814,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1842,11 +1783,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1866,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1894,11 +1831,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1918,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1946,11 +1879,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1970,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1998,11 +1927,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2022,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2050,11 +1975,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2074,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2102,11 +2023,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2126,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2154,11 +2071,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2178,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2206,11 +2119,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2230,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2258,11 +2167,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2282,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2310,11 +2215,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2334,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2362,11 +2263,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2386,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2414,11 +2311,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2438,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2466,11 +2359,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2490,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2516,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2542,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2568,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2594,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2620,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2646,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2672,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2698,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2724,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2750,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2776,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2802,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2828,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2854,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2880,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2906,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2932,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2958,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2986,11 +2839,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3010,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3036,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3062,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3088,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3114,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3140,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3166,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3192,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3218,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3244,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3270,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3296,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3322,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3348,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3374,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3400,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3426,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3452,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3478,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3504,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3530,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3556,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3582,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3608,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3634,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>80</v>
-      </c>
-      <c r="G87" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3660,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3686,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3712,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3738,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3764,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3790,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>80</v>
-      </c>
-      <c r="G93" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3816,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3842,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
-      </c>
-      <c r="G95" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3868,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3894,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>80</v>
-      </c>
-      <c r="G97" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3920,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3946,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>80</v>
-      </c>
-      <c r="G99" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3972,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3998,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>80</v>
-      </c>
-      <c r="G101" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4024,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4050,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
-      </c>
-      <c r="G103" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4076,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4104,11 +3871,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4128,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4154,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4180,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4206,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4232,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4258,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4284,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>126</v>
-      </c>
-      <c r="H112" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4310,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4336,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4364,11 +4111,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4388,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4414,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4440,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4466,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4492,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4518,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4544,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4570,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4596,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4622,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4648,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4674,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4700,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4726,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4752,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4780,11 +4495,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4804,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4830,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4858,11 +4567,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4884,11 +4591,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4908,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G136" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4934,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4960,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>157</v>
-      </c>
-      <c r="G138" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4986,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5012,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>157</v>
-      </c>
-      <c r="G140" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5038,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5064,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
         <v>157</v>
-      </c>
-      <c r="G142" t="s">
-        <v>158</v>
-      </c>
-      <c r="H142" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5090,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5116,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
-      </c>
-      <c r="G144" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5142,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5168,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>157</v>
-      </c>
-      <c r="G146" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5194,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5220,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>157</v>
-      </c>
-      <c r="G148" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5246,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5272,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>157</v>
-      </c>
-      <c r="G150" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5298,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5324,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>157</v>
-      </c>
-      <c r="G152" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5350,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5376,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>157</v>
-      </c>
-      <c r="G154" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5402,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5428,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>157</v>
-      </c>
-      <c r="G156" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5454,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5480,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>157</v>
-      </c>
-      <c r="G158" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5506,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5532,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>157</v>
-      </c>
-      <c r="G160" t="s">
-        <v>158</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5558,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5586,11 +5239,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5610,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
-      </c>
-      <c r="G163" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5636,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5662,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
-      </c>
-      <c r="G165" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5688,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5714,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>186</v>
-      </c>
-      <c r="G167" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5740,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5766,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>186</v>
-      </c>
-      <c r="G169" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5792,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5818,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>186</v>
-      </c>
-      <c r="G171" t="s">
+        <v>178</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
         <v>187</v>
-      </c>
-      <c r="H171" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5844,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5870,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>186</v>
-      </c>
-      <c r="G173" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5896,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5922,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>186</v>
-      </c>
-      <c r="G175" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5948,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5974,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>186</v>
-      </c>
-      <c r="G177" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6000,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6026,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>186</v>
-      </c>
-      <c r="G179" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6052,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6078,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>186</v>
-      </c>
-      <c r="G181" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6104,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6130,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>186</v>
-      </c>
-      <c r="G183" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6156,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6182,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>186</v>
-      </c>
-      <c r="G185" t="s">
-        <v>187</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6210,11 +5815,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6234,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6262,11 +5863,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6286,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6314,11 +5911,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6338,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6366,11 +5959,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6390,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6418,11 +6007,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6442,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6470,11 +6055,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6494,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6522,11 +6103,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6546,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6574,11 +6151,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6598,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6626,11 +6199,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6650,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6678,11 +6247,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6702,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6730,11 +6295,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6754,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6782,11 +6343,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6806,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6834,11 +6391,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6858,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6886,11 +6439,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6910,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
-      </c>
-      <c r="G213" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6938,11 +6487,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6962,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
-      </c>
-      <c r="G215" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6990,11 +6535,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7014,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7042,11 +6583,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7066,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7094,11 +6631,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7118,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>20</v>
-      </c>
-      <c r="G221" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7146,11 +6679,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7170,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7198,11 +6727,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7222,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7250,11 +6775,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7274,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>20</v>
-      </c>
-      <c r="G227" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7302,11 +6823,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7326,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7354,11 +6871,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7378,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>16</v>
-      </c>
-      <c r="G231" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7406,11 +6919,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7430,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>16</v>
-      </c>
-      <c r="G233" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7458,11 +6967,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7482,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7508,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>20</v>
-      </c>
-      <c r="G236" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7534,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>16</v>
-      </c>
-      <c r="G237" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7560,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>20</v>
-      </c>
-      <c r="G238" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7586,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>16</v>
-      </c>
-      <c r="G239" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7614,11 +7111,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7638,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>80</v>
-      </c>
-      <c r="G241" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7664,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>20</v>
-      </c>
-      <c r="G242" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7690,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>80</v>
-      </c>
-      <c r="G243" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7716,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>20</v>
-      </c>
-      <c r="G244" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7742,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>80</v>
-      </c>
-      <c r="G245" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7768,13 +7253,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>20</v>
-      </c>
-      <c r="G246" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7794,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>80</v>
-      </c>
-      <c r="G247" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7820,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7846,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>80</v>
-      </c>
-      <c r="G249" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7872,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>20</v>
-      </c>
-      <c r="G250" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7898,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>20</v>
-      </c>
-      <c r="G251" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7924,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>80</v>
-      </c>
-      <c r="G252" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7950,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7976,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>80</v>
-      </c>
-      <c r="G254" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8002,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>20</v>
-      </c>
-      <c r="G255" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8028,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>80</v>
-      </c>
-      <c r="G256" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8054,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>20</v>
-      </c>
-      <c r="G257" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8080,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>80</v>
-      </c>
-      <c r="G258" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8106,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>20</v>
-      </c>
-      <c r="G259" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8132,13 +7589,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>80</v>
-      </c>
-      <c r="G260" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8158,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>20</v>
-      </c>
-      <c r="G261" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8184,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>80</v>
-      </c>
-      <c r="G262" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8210,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>20</v>
-      </c>
-      <c r="G263" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8236,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>80</v>
-      </c>
-      <c r="G264" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8262,13 +7709,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>20</v>
-      </c>
-      <c r="G265" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8288,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>80</v>
-      </c>
-      <c r="G266" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8314,13 +7757,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>20</v>
-      </c>
-      <c r="G267" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8340,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>80</v>
-      </c>
-      <c r="G268" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8366,13 +7805,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="G269" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8392,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>80</v>
-      </c>
-      <c r="G270" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8418,13 +7853,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8444,13 +7877,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>80</v>
-      </c>
-      <c r="G272" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8470,13 +7901,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8496,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>80</v>
-      </c>
-      <c r="G274" t="s">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8524,11 +7951,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8548,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>20</v>
-      </c>
-      <c r="G276" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8576,11 +7999,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8600,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>20</v>
-      </c>
-      <c r="G278" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8628,11 +8047,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8652,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>20</v>
-      </c>
-      <c r="G280" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8680,11 +8095,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8704,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>20</v>
-      </c>
-      <c r="G282" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8732,11 +8143,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8756,13 +8165,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>20</v>
-      </c>
-      <c r="G284" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8784,11 +8191,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8808,13 +8213,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>20</v>
-      </c>
-      <c r="G286" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8836,11 +8239,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8860,13 +8261,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>20</v>
-      </c>
-      <c r="G288" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8888,11 +8287,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8912,13 +8309,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>20</v>
-      </c>
-      <c r="G290" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8940,11 +8335,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8964,13 +8357,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>20</v>
-      </c>
-      <c r="G292" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8992,11 +8383,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9016,13 +8405,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>20</v>
-      </c>
-      <c r="G294" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9044,11 +8431,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9068,13 +8453,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>20</v>
-      </c>
-      <c r="G296" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9096,11 +8479,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9120,13 +8501,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
-      </c>
-      <c r="G298" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9148,11 +8527,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9172,13 +8549,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>20</v>
-      </c>
-      <c r="G300" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9200,11 +8575,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9224,13 +8597,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>20</v>
-      </c>
-      <c r="G302" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9252,11 +8623,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9276,13 +8645,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>20</v>
-      </c>
-      <c r="G304" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9304,11 +8671,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9328,13 +8693,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>20</v>
-      </c>
-      <c r="G306" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9356,11 +8719,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9380,13 +8741,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>16</v>
-      </c>
-      <c r="G308" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9406,13 +8765,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>20</v>
-      </c>
-      <c r="G309" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9432,13 +8789,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>16</v>
-      </c>
-      <c r="G310" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9460,11 +8815,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9484,13 +8837,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>16</v>
-      </c>
-      <c r="G312" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9512,11 +8863,9 @@
       <c r="F313" t="s">
         <v>11</v>
       </c>
-      <c r="G313" t="s">
-        <v>12</v>
-      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9538,11 +8887,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
